--- a/competitions/answer/analysis/xorder/evaluation_xorder.xlsx
+++ b/competitions/answer/analysis/xorder/evaluation_xorder.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/0x1af/dev/promptrank/competitions/hallucination/analysis/xorder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/0x1af/dev/promptrank/competitions/answer/analysis/xorder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B3187F-0548-FA4B-9C84-223C34574BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84588FF-2768-BB4D-BA03-E78F29A8CEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3720" yWindow="5640" windowWidth="32280" windowHeight="19780" xr2:uid="{1952D3E9-D84B-F14E-B184-510410123A87}"/>
   </bookViews>
@@ -40424,7 +40424,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V25" sqref="V25"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
